--- a/erns/skin/skin_emx2.xlsx
+++ b/erns/skin/skin_emx2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcruvolo/Github/projects-rd-erns/erns/skin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843640D5-B8FA-5449-B09E-B0AFCB9C888C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A5B6E-D3C1-454B-A6BA-31C6D640506C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3180" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="components" sheetId="4" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="dataproviders" sheetId="8" r:id="rId3"/>
     <sheet name="statistics" sheetId="7" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">organisations!$A$1:$L$57</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="540">
   <si>
     <t>name</t>
   </si>
@@ -106,9 +109,6 @@
     <t>00gj8pr18</t>
   </si>
   <si>
-    <t>Städtisches Klinikum Dessau / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00gj8pr18</t>
   </si>
   <si>
@@ -124,9 +124,6 @@
     <t>03pvr2g57</t>
   </si>
   <si>
-    <t>Universitätsklinikum Würzburg / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/03pvr2g57</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>0575yy874</t>
   </si>
   <si>
-    <t>University Medical Center Utrecht / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/0575yy874</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>05tr67282</t>
   </si>
   <si>
-    <t>Assistance Publique-Hôpitaux de Paris, Hôpital Necker-Enfants Malades / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/05tr67282</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>03vzbgh69</t>
   </si>
   <si>
-    <t>Universitätsklinikum Freiburg / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/03vzbgh69</t>
   </si>
   <si>
@@ -178,9 +166,6 @@
     <t>00rg70c39</t>
   </si>
   <si>
-    <t>Fondazione Policlinico Universitario A. Gemelli - Roma / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00rg70c39</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
     <t>01226dv09</t>
   </si>
   <si>
-    <t>Universitätsklinikum Regensburg / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01226dv09</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>01apvbh93</t>
   </si>
   <si>
-    <t>Akademiska sjukhuset / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01apvbh93</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>05qsjq305</t>
   </si>
   <si>
-    <t>CHU de Nice / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/05qsjq305</t>
   </si>
   <si>
@@ -232,9 +208,6 @@
     <t>001jx2139</t>
   </si>
   <si>
-    <t>Hospital de Sant Joan de Déu / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/001jx2139</t>
   </si>
   <si>
@@ -247,9 +220,6 @@
     <t>03xq7w797</t>
   </si>
   <si>
-    <t>Centre Hospitalier de Luxembourg / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/03xq7w797</t>
   </si>
   <si>
@@ -259,9 +229,6 @@
     <t>02e8hzf44</t>
   </si>
   <si>
-    <t>Helsinki University Hospital (HUS) / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/02e8hzf44</t>
   </si>
   <si>
@@ -274,9 +241,6 @@
     <t>04m61mj84</t>
   </si>
   <si>
-    <t>Assistance Publique-Hôpitaux de Paris, Hôpital Henri-Mondor / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/04m61mj84</t>
   </si>
   <si>
@@ -286,9 +250,6 @@
     <t>05a01hn31</t>
   </si>
   <si>
-    <t>Sptar Mater Dei / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/05a01hn31</t>
   </si>
   <si>
@@ -301,9 +262,6 @@
     <t>015rhss58</t>
   </si>
   <si>
-    <t>Spedali Civili di Brescia / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/015rhss58</t>
   </si>
   <si>
@@ -313,9 +271,6 @@
     <t>02d9ce178</t>
   </si>
   <si>
-    <t>Maastricht University Medical Center+ / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/02d9ce178</t>
   </si>
   <si>
@@ -325,9 +280,6 @@
     <t>025qedy81</t>
   </si>
   <si>
-    <t>Children's Health Ireland / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/025qedy81</t>
   </si>
   <si>
@@ -340,9 +292,6 @@
     <t>02xf66n48</t>
   </si>
   <si>
-    <t>University of Debrecen / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/02xf66n48</t>
   </si>
   <si>
@@ -352,15 +301,6 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>028ze1052</t>
-  </si>
-  <si>
-    <t>Tirol Kliniken GmbH / ERN-SKIN unit</t>
-  </si>
-  <si>
-    <t>https://ror.org/028ze1052</t>
-  </si>
-  <si>
     <t>Innsbruck</t>
   </si>
   <si>
@@ -370,9 +310,6 @@
     <t>05a87zb20</t>
   </si>
   <si>
-    <t>A. ASL Toscana Centro / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/05a87zb20</t>
   </si>
   <si>
@@ -382,9 +319,6 @@
     <t>009e9xr64</t>
   </si>
   <si>
-    <t>Nemocnice Na Bulovce  / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/009e9xr64</t>
   </si>
   <si>
@@ -397,9 +331,6 @@
     <t>01hq89f96</t>
   </si>
   <si>
-    <t>CHU de Bordeaux / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01hq89f96</t>
   </si>
   <si>
@@ -409,9 +340,6 @@
     <t>02jet3w32</t>
   </si>
   <si>
-    <t>Klinikum der Universität München / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/02jet3w32</t>
   </si>
   <si>
@@ -421,9 +349,6 @@
     <t>049bjee35</t>
   </si>
   <si>
-    <t>Fakultní nemocnice U Sv. Anny v Brně  / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/049bjee35</t>
   </si>
   <si>
@@ -433,9 +358,6 @@
     <t>01pnej532</t>
   </si>
   <si>
-    <t>Szent-Györgyi Albert Medical Center, University of Szeged / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01pnej532</t>
   </si>
   <si>
@@ -445,9 +367,6 @@
     <t>00cxy0s05</t>
   </si>
   <si>
-    <t>CHU de Rouen / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00cxy0s05</t>
   </si>
   <si>
@@ -457,9 +376,6 @@
     <t>00xmkp704</t>
   </si>
   <si>
-    <t>UZ Gent / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00xmkp704</t>
   </si>
   <si>
@@ -472,9 +388,6 @@
     <t>01nr6fy72</t>
   </si>
   <si>
-    <t>Univerzitetni klinični center Ljubljana / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01nr6fy72</t>
   </si>
   <si>
@@ -487,9 +400,6 @@
     <t>01856cw59</t>
   </si>
   <si>
-    <t>Universitätsklinikum Münster / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01856cw59</t>
   </si>
   <si>
@@ -499,18 +409,12 @@
     <t>03pt86f80</t>
   </si>
   <si>
-    <t>Medizinische Universität Innsbruck / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/03pt86f80</t>
   </si>
   <si>
     <t>02mby1820</t>
   </si>
   <si>
-    <t>AOU di Bologna / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/02mby1820</t>
   </si>
   <si>
@@ -520,9 +424,6 @@
     <t>001f7a930</t>
   </si>
   <si>
-    <t>AO Città della Salute e della Scienza di Torino / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/001f7a930</t>
   </si>
   <si>
@@ -532,9 +433,6 @@
     <t>00r9vb833</t>
   </si>
   <si>
-    <t>Klinički bolnički centar Zagreb / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00r9vb833</t>
   </si>
   <si>
@@ -547,9 +445,6 @@
     <t>016zn0y21</t>
   </si>
   <si>
-    <t>Fondazione IRCCS CA'Granda Ospedale Maggiore Policlinico , Milano / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/016zn0y21</t>
   </si>
   <si>
@@ -559,9 +454,6 @@
     <t>04fkbqt11</t>
   </si>
   <si>
-    <t>Spitalul Clinic Colentina / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/04fkbqt11</t>
   </si>
   <si>
@@ -574,9 +466,6 @@
     <t>0424bsv16</t>
   </si>
   <si>
-    <t>UZ Leuven / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/0424bsv16</t>
   </si>
   <si>
@@ -586,42 +475,21 @@
     <t>01n2xwm51</t>
   </si>
   <si>
-    <t>AOU Meyer di Firenze / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01n2xwm51</t>
   </si>
   <si>
     <t>Florence</t>
   </si>
   <si>
-    <t>01tvm6f46</t>
-  </si>
-  <si>
-    <t>Universitätsklinikum Schleswig-Holstein / ERN-SKIN unit</t>
-  </si>
-  <si>
-    <t>https://ror.org/01tvm6f46</t>
-  </si>
-  <si>
-    <t>Kiel</t>
-  </si>
-  <si>
     <t>02sy42d13</t>
   </si>
   <si>
-    <t>IRCCS Ospedale Pediatrico Bambino Gesù, Roma / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/02sy42d13</t>
   </si>
   <si>
     <t>03cv38k47</t>
   </si>
   <si>
-    <t>University Medical Centre Groningen / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/03cv38k47</t>
   </si>
   <si>
@@ -631,9 +499,6 @@
     <t>00363z010</t>
   </si>
   <si>
-    <t>Sjællands Universitetshospital / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00363z010</t>
   </si>
   <si>
@@ -646,9 +511,6 @@
     <t>018906e22</t>
   </si>
   <si>
-    <t>Erasmus MC: University Medical Center Rotterdam / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/018906e22</t>
   </si>
   <si>
@@ -658,9 +520,6 @@
     <t>059q6am89</t>
   </si>
   <si>
-    <t>EB-Haus / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/059q6am89</t>
   </si>
   <si>
@@ -670,9 +529,6 @@
     <t>00md77g41</t>
   </si>
   <si>
-    <t>Fondazione IRCCS-Casa Sollievo della Sofferenza / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00md77g41</t>
   </si>
   <si>
@@ -682,9 +538,6 @@
     <t>01g9ty582</t>
   </si>
   <si>
-    <t>Semmelweis University / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01g9ty582</t>
   </si>
   <si>
@@ -694,18 +547,12 @@
     <t>04sg4ka71</t>
   </si>
   <si>
-    <t>Fakultní nemocnice Královské Vinohrady / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/04sg4ka71</t>
   </si>
   <si>
     <t>05j1gs298</t>
   </si>
   <si>
-    <t>CUB-Hôpital Erasme / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/05j1gs298</t>
   </si>
   <si>
@@ -715,42 +562,18 @@
     <t>02b5mfy68</t>
   </si>
   <si>
-    <t>IRCCS IDI Fondazione Luigi Maria Monti - Roma / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/02b5mfy68</t>
   </si>
   <si>
-    <t>00dfpj523</t>
-  </si>
-  <si>
-    <t>Uniwersytecki Szpital Święcickiego w Poznaniu  / ERN-SKIN unit</t>
-  </si>
-  <si>
-    <t>https://ror.org/00dfpj523</t>
-  </si>
-  <si>
-    <t>Poznań</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
     <t>00qq1fp34</t>
   </si>
   <si>
-    <t>Fakultní nemocnice Brno  / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00qq1fp34</t>
   </si>
   <si>
     <t>02d4c4y02</t>
   </si>
   <si>
-    <t>AOU di Modena / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/02d4c4y02</t>
   </si>
   <si>
@@ -760,9 +583,6 @@
     <t>0069bkg23</t>
   </si>
   <si>
-    <t>Lietuvos Sveikatos Mokslu Universiteto Ligonine Kauno Klinikos / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/0069bkg23</t>
   </si>
   <si>
@@ -775,9 +595,6 @@
     <t>00ey0ed83</t>
   </si>
   <si>
-    <t>Odense Universitetshospital / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/00ey0ed83</t>
   </si>
   <si>
@@ -787,9 +604,6 @@
     <t>05grdyy37</t>
   </si>
   <si>
-    <t>Amsterdam University Medical Centers Location AMC / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/05grdyy37</t>
   </si>
   <si>
@@ -799,9 +613,6 @@
     <t>017h5q109</t>
   </si>
   <si>
-    <t>CHU de Toulouse / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/017h5q109</t>
   </si>
   <si>
@@ -811,9 +622,6 @@
     <t>0030f2a11</t>
   </si>
   <si>
-    <t>Universitätsklinikum Erlangen / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/0030f2a11</t>
   </si>
   <si>
@@ -823,9 +631,6 @@
     <t>01js8h045</t>
   </si>
   <si>
-    <t>Bērnu klīniskā universitātes slimnīca / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/01js8h045</t>
   </si>
   <si>
@@ -838,9 +643,6 @@
     <t>04bhk6583</t>
   </si>
   <si>
-    <t>Azienda Ospedale  - Università Padova / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/04bhk6583</t>
   </si>
   <si>
@@ -850,9 +652,6 @@
     <t>04dm1cm79</t>
   </si>
   <si>
-    <t>Universitätsmedizin Rostock / ERN-SKIN unit</t>
-  </si>
-  <si>
     <t>https://ror.org/04dm1cm79</t>
   </si>
   <si>
@@ -1058,6 +857,795 @@
   </si>
   <si>
     <t>definition</t>
+  </si>
+  <si>
+    <t>Medical University Innsbruck</t>
+  </si>
+  <si>
+    <t>47.26266</t>
+  </si>
+  <si>
+    <t>11.39454</t>
+  </si>
+  <si>
+    <t>EB-Haus</t>
+  </si>
+  <si>
+    <t>EB House Austria</t>
+  </si>
+  <si>
+    <t>47.807328</t>
+  </si>
+  <si>
+    <t>13.030384</t>
+  </si>
+  <si>
+    <t>University Hospital Ghent</t>
+  </si>
+  <si>
+    <t>Ghent University Hospital</t>
+  </si>
+  <si>
+    <t>51.025171</t>
+  </si>
+  <si>
+    <t>3.725213</t>
+  </si>
+  <si>
+    <t>University Hospital Leuven</t>
+  </si>
+  <si>
+    <t>Universitair Ziekenhuis Leuven</t>
+  </si>
+  <si>
+    <t>50.87959</t>
+  </si>
+  <si>
+    <t>4.70093</t>
+  </si>
+  <si>
+    <t>Hôpital Universitaire de Bruxelles(HUDERF-Erasme)</t>
+  </si>
+  <si>
+    <t>Erasmus Hospital</t>
+  </si>
+  <si>
+    <t>50.813611</t>
+  </si>
+  <si>
+    <t>4.266111</t>
+  </si>
+  <si>
+    <t>University Hospital Královské Vinohrady</t>
+  </si>
+  <si>
+    <t>5008804.0</t>
+  </si>
+  <si>
+    <t>1442076.0</t>
+  </si>
+  <si>
+    <t>Hospital Na Bulovce</t>
+  </si>
+  <si>
+    <t>Fakultní nemocnice Bulovka</t>
+  </si>
+  <si>
+    <t>50.116207</t>
+  </si>
+  <si>
+    <t>14.464003</t>
+  </si>
+  <si>
+    <t>Saint Anna University Hospital in Brno</t>
+  </si>
+  <si>
+    <t>St. Anne´s University Hospital</t>
+  </si>
+  <si>
+    <t>49.19215</t>
+  </si>
+  <si>
+    <t>16.599042</t>
+  </si>
+  <si>
+    <t>University Hospital Brno</t>
+  </si>
+  <si>
+    <t>49.174602</t>
+  </si>
+  <si>
+    <t>16.573914</t>
+  </si>
+  <si>
+    <t>Zealand University Hospital</t>
+  </si>
+  <si>
+    <t>55.64152</t>
+  </si>
+  <si>
+    <t>12.08035</t>
+  </si>
+  <si>
+    <t>Odense University Hospital</t>
+  </si>
+  <si>
+    <t>55.38545</t>
+  </si>
+  <si>
+    <t>10.369656</t>
+  </si>
+  <si>
+    <t>Helsinki University Hospital (HUS)</t>
+  </si>
+  <si>
+    <t>60.188611</t>
+  </si>
+  <si>
+    <t>24.905278</t>
+  </si>
+  <si>
+    <t>Assistance Publique-Hôpitaux de Paris, Hôpital Henri-Mondor</t>
+  </si>
+  <si>
+    <t>Hôpital Necker-Enfants Malades</t>
+  </si>
+  <si>
+    <t>48.85341</t>
+  </si>
+  <si>
+    <t>2.3488</t>
+  </si>
+  <si>
+    <t>CHU de Nice</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire de Nice</t>
+  </si>
+  <si>
+    <t>43.710521</t>
+  </si>
+  <si>
+    <t>7.260534</t>
+  </si>
+  <si>
+    <t>Assistance Publique-Hôpitaux de Paris, Hôpital Necker-Enfants Malades</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire Henri-Mondor</t>
+  </si>
+  <si>
+    <t>48.796974</t>
+  </si>
+  <si>
+    <t>2.45295</t>
+  </si>
+  <si>
+    <t>CHU de Bordeaux</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire de Bordeaux</t>
+  </si>
+  <si>
+    <t>44.84044</t>
+  </si>
+  <si>
+    <t>-0.5805</t>
+  </si>
+  <si>
+    <t>CHU de Rouen</t>
+  </si>
+  <si>
+    <t>Hôpital Charles-Nicolle</t>
+  </si>
+  <si>
+    <t>49.440541</t>
+  </si>
+  <si>
+    <t>1.110672</t>
+  </si>
+  <si>
+    <t>CHU de Toulouse</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier Universitaire de Toulouse</t>
+  </si>
+  <si>
+    <t>43.60426</t>
+  </si>
+  <si>
+    <t>1.44367</t>
+  </si>
+  <si>
+    <t>Städtisches Klinikum Dessau</t>
+  </si>
+  <si>
+    <t>51.81578</t>
+  </si>
+  <si>
+    <t>12.197049</t>
+  </si>
+  <si>
+    <t>Universitätsklinikum Würzburg</t>
+  </si>
+  <si>
+    <t>University Hospital Würzburg</t>
+  </si>
+  <si>
+    <t>49.801517</t>
+  </si>
+  <si>
+    <t>9.95373</t>
+  </si>
+  <si>
+    <t>Universitätsklinikum Freiburg</t>
+  </si>
+  <si>
+    <t>University Medical Center Freiburg</t>
+  </si>
+  <si>
+    <t>48.006297</t>
+  </si>
+  <si>
+    <t>7.840624</t>
+  </si>
+  <si>
+    <t>Universitätsklinikum Regensburg</t>
+  </si>
+  <si>
+    <t>University Hospital Regensburg</t>
+  </si>
+  <si>
+    <t>48.988489</t>
+  </si>
+  <si>
+    <t>12.089145</t>
+  </si>
+  <si>
+    <t>Klinikum der Universität München</t>
+  </si>
+  <si>
+    <t>LMU Klinikum</t>
+  </si>
+  <si>
+    <t>48.110278</t>
+  </si>
+  <si>
+    <t>11.469444</t>
+  </si>
+  <si>
+    <t>Universitätsklinikum Münster</t>
+  </si>
+  <si>
+    <t>University Hospital Münster</t>
+  </si>
+  <si>
+    <t>51.960835</t>
+  </si>
+  <si>
+    <t>7.596277</t>
+  </si>
+  <si>
+    <t>Universitätsklinikum Erlangen</t>
+  </si>
+  <si>
+    <t>49.59099</t>
+  </si>
+  <si>
+    <t>11.00783</t>
+  </si>
+  <si>
+    <t>Universitätsmedizin Rostock</t>
+  </si>
+  <si>
+    <t>54.075556</t>
+  </si>
+  <si>
+    <t>12.103333</t>
+  </si>
+  <si>
+    <t>University of Debrecen</t>
+  </si>
+  <si>
+    <t>47.53167</t>
+  </si>
+  <si>
+    <t>21.62444</t>
+  </si>
+  <si>
+    <t>Szent-Györgyi Albert Medical Center, University of Szeged</t>
+  </si>
+  <si>
+    <t>University of Szeged</t>
+  </si>
+  <si>
+    <t>46.253</t>
+  </si>
+  <si>
+    <t>20.14824</t>
+  </si>
+  <si>
+    <t>Semmelweis University</t>
+  </si>
+  <si>
+    <t>47.487222</t>
+  </si>
+  <si>
+    <t>19.067222</t>
+  </si>
+  <si>
+    <t>Children's Health Ireland</t>
+  </si>
+  <si>
+    <t>Children's Health Ireland at Crumlin</t>
+  </si>
+  <si>
+    <t>53.325833</t>
+  </si>
+  <si>
+    <t>-6.317222</t>
+  </si>
+  <si>
+    <t>Foundation polyclinic University A. Gemelli - Rome</t>
+  </si>
+  <si>
+    <t>Agostino Gemelli University Polyclinic</t>
+  </si>
+  <si>
+    <t>41.929752</t>
+  </si>
+  <si>
+    <t>12.429125</t>
+  </si>
+  <si>
+    <t>Civil Hospital - Brescia</t>
+  </si>
+  <si>
+    <t>Spedali Civili di Brescia</t>
+  </si>
+  <si>
+    <t>45.557998</t>
+  </si>
+  <si>
+    <t>10.230771</t>
+  </si>
+  <si>
+    <t>ASL Tuscan Centre</t>
+  </si>
+  <si>
+    <t>Azienda Usl Toscana Centro</t>
+  </si>
+  <si>
+    <t>43.9350518</t>
+  </si>
+  <si>
+    <t>10.9183529</t>
+  </si>
+  <si>
+    <t>AOU - Bologna</t>
+  </si>
+  <si>
+    <t>Azienda USL di Bologna</t>
+  </si>
+  <si>
+    <t>44.48979</t>
+  </si>
+  <si>
+    <t>11.348087</t>
+  </si>
+  <si>
+    <t>AO City of Health and Science - Turin</t>
+  </si>
+  <si>
+    <t>Azienda Ospedaliera Citta' della Salute e della Scienza di Torino</t>
+  </si>
+  <si>
+    <t>45.041268</t>
+  </si>
+  <si>
+    <t>7.672926</t>
+  </si>
+  <si>
+    <t>Foundation IRCCS CA'Granda Ospedale Maggiore polyclinic - Milan</t>
+  </si>
+  <si>
+    <t>Fondazione IRCCS Ca' Granda Ospedale Maggiore Policlinico</t>
+  </si>
+  <si>
+    <t>45.46427</t>
+  </si>
+  <si>
+    <t>9.18951</t>
+  </si>
+  <si>
+    <t>AOU Meyer - Florence</t>
+  </si>
+  <si>
+    <t>Meyer Children's Hospital</t>
+  </si>
+  <si>
+    <t>43.810527</t>
+  </si>
+  <si>
+    <t>11.252438</t>
+  </si>
+  <si>
+    <t>Pediatric hospital Bambino Gesù, Rome</t>
+  </si>
+  <si>
+    <t>Bambino Gesù Children's Hospital</t>
+  </si>
+  <si>
+    <t>41.897466</t>
+  </si>
+  <si>
+    <t>12.461168</t>
+  </si>
+  <si>
+    <t>Foundation IRCCS-Casa Sollievo della Sofferenza</t>
+  </si>
+  <si>
+    <t>Casa Sollievo della Sofferenza</t>
+  </si>
+  <si>
+    <t>41.708831</t>
+  </si>
+  <si>
+    <t>15.706202</t>
+  </si>
+  <si>
+    <t>IRCCS IDI foundation Luigi Maria Monti - Rome</t>
+  </si>
+  <si>
+    <t>Istituto Dermopatico dell'Immacolata</t>
+  </si>
+  <si>
+    <t>41.901642</t>
+  </si>
+  <si>
+    <t>12.430741</t>
+  </si>
+  <si>
+    <t>AOU - Modena</t>
+  </si>
+  <si>
+    <t>University of Modena and Reggio Emilia</t>
+  </si>
+  <si>
+    <t>44.64783</t>
+  </si>
+  <si>
+    <t>10.92539</t>
+  </si>
+  <si>
+    <t>University Hospital of Padova</t>
+  </si>
+  <si>
+    <t>Azienda Ospedaliera di Padova</t>
+  </si>
+  <si>
+    <t>45.404314</t>
+  </si>
+  <si>
+    <t>11.887474</t>
+  </si>
+  <si>
+    <t>Children's Clinical University Hospital, Riga</t>
+  </si>
+  <si>
+    <t>56.921972</t>
+  </si>
+  <si>
+    <t>24.088044</t>
+  </si>
+  <si>
+    <t>Hospital of Lithuanian University of Health Sciences Kauno Klinikos</t>
+  </si>
+  <si>
+    <t>Lithuanian University of Health Sciences</t>
+  </si>
+  <si>
+    <t>54.90272</t>
+  </si>
+  <si>
+    <t>23.90961</t>
+  </si>
+  <si>
+    <t>Centre Hospitalier de Luxembourg</t>
+  </si>
+  <si>
+    <t>49.61902</t>
+  </si>
+  <si>
+    <t>6.100791</t>
+  </si>
+  <si>
+    <t>Mater Dei Hospital</t>
+  </si>
+  <si>
+    <t>35.901828</t>
+  </si>
+  <si>
+    <t>14.476744</t>
+  </si>
+  <si>
+    <t>University Medical Center Utrecht</t>
+  </si>
+  <si>
+    <t>52.09083</t>
+  </si>
+  <si>
+    <t>5.12222</t>
+  </si>
+  <si>
+    <t>Maastricht University Medical Center+</t>
+  </si>
+  <si>
+    <t>50.84833</t>
+  </si>
+  <si>
+    <t>5.68889</t>
+  </si>
+  <si>
+    <t>University Medical Centre Groningen</t>
+  </si>
+  <si>
+    <t>53.222794</t>
+  </si>
+  <si>
+    <t>6.574039</t>
+  </si>
+  <si>
+    <t>Erasmus MC: University Medical Center Rotterdam</t>
+  </si>
+  <si>
+    <t>Erasmus MC</t>
+  </si>
+  <si>
+    <t>51.9225</t>
+  </si>
+  <si>
+    <t>4.47917</t>
+  </si>
+  <si>
+    <t>Amsterdam University Medical Centers Location AMC</t>
+  </si>
+  <si>
+    <t>Amsterdam University Medical Centers</t>
+  </si>
+  <si>
+    <t>52.37403</t>
+  </si>
+  <si>
+    <t>4.88969</t>
+  </si>
+  <si>
+    <t>Colentina Clinical Hospital</t>
+  </si>
+  <si>
+    <t>Spitalul Clinic Colentina</t>
+  </si>
+  <si>
+    <t>44.453796</t>
+  </si>
+  <si>
+    <t>26.113551</t>
+  </si>
+  <si>
+    <t>University Medical Centre Ljubljana</t>
+  </si>
+  <si>
+    <t>Ljubljana University Medical Centre</t>
+  </si>
+  <si>
+    <t>46.053689</t>
+  </si>
+  <si>
+    <t>14.521233</t>
+  </si>
+  <si>
+    <t>Sant Joan de Déu Hospital</t>
+  </si>
+  <si>
+    <t>Hospital Sant Joan de Déu Barcelona</t>
+  </si>
+  <si>
+    <t>41.38424</t>
+  </si>
+  <si>
+    <t>2.102141</t>
+  </si>
+  <si>
+    <t>Uppsala University Hospital</t>
+  </si>
+  <si>
+    <t>59.847222</t>
+  </si>
+  <si>
+    <t>17.640278</t>
+  </si>
+  <si>
+    <t>University Hospital Center Zagreb</t>
+  </si>
+  <si>
+    <t>4581444.0</t>
+  </si>
+  <si>
+    <t>1597798.0</t>
+  </si>
+  <si>
+    <t>hasSchema</t>
+  </si>
+  <si>
+    <t>schemaName</t>
+  </si>
+  <si>
+    <t>AT04</t>
+  </si>
+  <si>
+    <t>AT01</t>
+  </si>
+  <si>
+    <t>BE06</t>
+  </si>
+  <si>
+    <t>BE10</t>
+  </si>
+  <si>
+    <t>BE04</t>
+  </si>
+  <si>
+    <t>CZ04</t>
+  </si>
+  <si>
+    <t>CZ03</t>
+  </si>
+  <si>
+    <t>CZ06</t>
+  </si>
+  <si>
+    <t>CZ08</t>
+  </si>
+  <si>
+    <t>DK04</t>
+  </si>
+  <si>
+    <t>DK03</t>
+  </si>
+  <si>
+    <t>SL02</t>
+  </si>
+  <si>
+    <t>SE05</t>
+  </si>
+  <si>
+    <t>RO02</t>
+  </si>
+  <si>
+    <t>LV01</t>
+  </si>
+  <si>
+    <t>LT04</t>
+  </si>
+  <si>
+    <t>LU01</t>
+  </si>
+  <si>
+    <t>MT02</t>
+  </si>
+  <si>
+    <t>NL13</t>
+  </si>
+  <si>
+    <t>NL06</t>
+  </si>
+  <si>
+    <t>NL02</t>
+  </si>
+  <si>
+    <t>NL03</t>
+  </si>
+  <si>
+    <t>NL01</t>
+  </si>
+  <si>
+    <t>IT11</t>
+  </si>
+  <si>
+    <t>IT14</t>
+  </si>
+  <si>
+    <t>IT04</t>
+  </si>
+  <si>
+    <t>IT07</t>
+  </si>
+  <si>
+    <t>IT27</t>
+  </si>
+  <si>
+    <t>IT09</t>
+  </si>
+  <si>
+    <t>IT20</t>
+  </si>
+  <si>
+    <t>IT58</t>
+  </si>
+  <si>
+    <t>IT53</t>
+  </si>
+  <si>
+    <t>IT39</t>
+  </si>
+  <si>
+    <t>IT34</t>
+  </si>
+  <si>
+    <t>IT33</t>
+  </si>
+  <si>
+    <t>HU01</t>
+  </si>
+  <si>
+    <t>HU04</t>
+  </si>
+  <si>
+    <t>HU03</t>
+  </si>
+  <si>
+    <t>ES08</t>
+  </si>
+  <si>
+    <t>FI01</t>
+  </si>
+  <si>
+    <t>HR01</t>
+  </si>
+  <si>
+    <t>IE01</t>
+  </si>
+  <si>
+    <t>FR22</t>
+  </si>
+  <si>
+    <t>FR09</t>
+  </si>
+  <si>
+    <t>FR28</t>
+  </si>
+  <si>
+    <t>FR15</t>
+  </si>
+  <si>
+    <t>FR31</t>
+  </si>
+  <si>
+    <t>FR34</t>
+  </si>
+  <si>
+    <t>DE20</t>
+  </si>
+  <si>
+    <t>DE24</t>
+  </si>
+  <si>
+    <t>DE38</t>
+  </si>
+  <si>
+    <t>DE27</t>
+  </si>
+  <si>
+    <t>DE25</t>
+  </si>
+  <si>
+    <t>DE26</t>
+  </si>
+  <si>
+    <t>DE19</t>
+  </si>
+  <si>
+    <t>DE03</t>
   </si>
 </sst>
 </file>
@@ -1113,9 +1701,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1153,7 +1741,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1259,7 +1847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1401,7 +1989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1431,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -1476,7 +2064,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1490,7 +2078,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -1500,1606 +2088,1993 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>282</v>
+      </c>
+      <c r="J3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J4" t="s">
+        <v>287</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J9" t="s">
+        <v>306</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
+        <v>308</v>
+      </c>
+      <c r="J10" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" t="s">
+        <v>311</v>
+      </c>
+      <c r="J11" t="s">
+        <v>312</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" t="s">
+        <v>314</v>
+      </c>
+      <c r="J12" t="s">
+        <v>315</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" t="s">
+        <v>317</v>
+      </c>
+      <c r="J13" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
+        <v>333</v>
+      </c>
+      <c r="J14" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
+        <v>329</v>
+      </c>
+      <c r="J15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>325</v>
+      </c>
+      <c r="J16" t="s">
+        <v>326</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>321</v>
+      </c>
+      <c r="J17" t="s">
+        <v>322</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>337</v>
+      </c>
+      <c r="J18" t="s">
+        <v>338</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>339</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" t="s">
+        <v>341</v>
+      </c>
+      <c r="J19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G20" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H20" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J20" t="s">
+        <v>345</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>367</v>
+      </c>
+      <c r="J21" t="s">
+        <v>368</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" t="s">
+        <v>351</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>352</v>
+      </c>
+      <c r="J22" t="s">
+        <v>353</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s">
+        <v>360</v>
+      </c>
+      <c r="J23" t="s">
+        <v>361</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>364</v>
+      </c>
+      <c r="J24" t="s">
+        <v>365</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s">
+        <v>356</v>
+      </c>
+      <c r="J25" t="s">
+        <v>357</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>370</v>
+      </c>
+      <c r="J26" t="s">
+        <v>371</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="G2">
-        <v>51.815779999999997</v>
-      </c>
-      <c r="H2">
-        <v>12.197049</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s">
+        <v>348</v>
+      </c>
+      <c r="J27" t="s">
+        <v>349</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>373</v>
+      </c>
+      <c r="J28" t="s">
+        <v>374</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>377</v>
+      </c>
+      <c r="J29" t="s">
+        <v>378</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" t="s">
+        <v>380</v>
+      </c>
+      <c r="J30" t="s">
+        <v>381</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>384</v>
+      </c>
+      <c r="J31" t="s">
+        <v>385</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>400</v>
+      </c>
+      <c r="J32" t="s">
+        <v>401</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>392</v>
+      </c>
+      <c r="J33" t="s">
+        <v>393</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>410</v>
+      </c>
+      <c r="B34" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s">
+        <v>412</v>
+      </c>
+      <c r="J34" t="s">
+        <v>413</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>406</v>
+      </c>
+      <c r="B35" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I35" t="s">
+        <v>408</v>
+      </c>
+      <c r="J35" t="s">
+        <v>409</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" t="s">
+        <v>427</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>428</v>
+      </c>
+      <c r="J36" t="s">
+        <v>429</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>432</v>
+      </c>
+      <c r="J37" t="s">
+        <v>433</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>394</v>
+      </c>
+      <c r="B38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s">
+        <v>396</v>
+      </c>
+      <c r="J38" t="s">
+        <v>397</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>386</v>
+      </c>
+      <c r="B39" t="s">
+        <v>387</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>388</v>
+      </c>
+      <c r="J39" t="s">
+        <v>389</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>414</v>
+      </c>
+      <c r="B40" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" t="s">
+        <v>416</v>
+      </c>
+      <c r="J40" t="s">
+        <v>417</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>422</v>
+      </c>
+      <c r="B41" t="s">
+        <v>423</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
+        <v>48</v>
+      </c>
+      <c r="I41" t="s">
+        <v>424</v>
+      </c>
+      <c r="J41" t="s">
+        <v>425</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B42" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s">
+        <v>420</v>
+      </c>
+      <c r="J42" t="s">
+        <v>421</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s">
+        <v>404</v>
+      </c>
+      <c r="J43" t="s">
+        <v>405</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" t="s">
+        <v>435</v>
+      </c>
+      <c r="J44" t="s">
+        <v>436</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>437</v>
+      </c>
+      <c r="B45" t="s">
+        <v>438</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" t="s">
+        <v>186</v>
+      </c>
+      <c r="H45" t="s">
+        <v>187</v>
+      </c>
+      <c r="I45" t="s">
+        <v>439</v>
+      </c>
+      <c r="J45" t="s">
+        <v>440</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>441</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s">
+        <v>442</v>
+      </c>
+      <c r="J46" t="s">
+        <v>443</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>444</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s">
+        <v>445</v>
+      </c>
+      <c r="J47" t="s">
+        <v>446</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>447</v>
+      </c>
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E48" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3">
-        <v>49.801516999999997</v>
-      </c>
-      <c r="H3">
-        <v>9.9537300000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>52.090829999999997</v>
-      </c>
-      <c r="H4">
-        <v>5.1222200000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5">
-        <v>48.853409999999997</v>
-      </c>
-      <c r="H5">
-        <v>2.3488000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6">
-        <v>48.006297000000004</v>
-      </c>
-      <c r="H6">
-        <v>7.840624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I48" t="s">
+        <v>448</v>
+      </c>
+      <c r="J48" t="s">
+        <v>449</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>450</v>
+      </c>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s">
+        <v>451</v>
+      </c>
+      <c r="J49" t="s">
+        <v>452</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>453</v>
+      </c>
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" t="s">
+        <v>454</v>
+      </c>
+      <c r="J50" t="s">
+        <v>455</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>456</v>
+      </c>
+      <c r="B51" t="s">
+        <v>457</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" t="s">
+        <v>458</v>
+      </c>
+      <c r="J51" t="s">
+        <v>459</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>460</v>
+      </c>
+      <c r="B52" t="s">
+        <v>461</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>192</v>
+      </c>
+      <c r="G52" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" t="s">
+        <v>37</v>
+      </c>
+      <c r="I52" t="s">
+        <v>462</v>
+      </c>
+      <c r="J52" t="s">
+        <v>463</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>464</v>
+      </c>
+      <c r="B53" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" t="s">
+        <v>143</v>
+      </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+      <c r="I53" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" t="s">
+        <v>467</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>468</v>
+      </c>
+      <c r="B54" t="s">
+        <v>469</v>
+      </c>
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" t="s">
+        <v>470</v>
+      </c>
+      <c r="J54" t="s">
+        <v>471</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>472</v>
+      </c>
+      <c r="B55" t="s">
+        <v>473</v>
+      </c>
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I55" t="s">
+        <v>474</v>
+      </c>
+      <c r="J55" t="s">
+        <v>475</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>476</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E56" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G56" t="s">
         <v>54</v>
       </c>
-      <c r="G7">
-        <v>41.929752000000001</v>
-      </c>
-      <c r="H7">
-        <v>12.429125000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H56" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8">
-        <v>48.988489000000001</v>
-      </c>
-      <c r="H8">
-        <v>12.089145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9">
-        <v>59.847222000000002</v>
-      </c>
-      <c r="H9">
-        <v>17.640277999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>43.710521</v>
-      </c>
-      <c r="H10">
-        <v>7.2605339999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11">
-        <v>41.384239999999998</v>
-      </c>
-      <c r="H11">
-        <v>2.102141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12">
-        <v>49.619019999999999</v>
-      </c>
-      <c r="H12">
-        <v>6.1007910000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13">
-        <v>60.188611000000002</v>
-      </c>
-      <c r="H13">
-        <v>24.905277999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>48.796973999999999</v>
-      </c>
-      <c r="H14">
-        <v>2.45295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15">
-        <v>35.901828000000002</v>
-      </c>
-      <c r="H15">
-        <v>14.476744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16">
-        <v>45.557997999999998</v>
-      </c>
-      <c r="H16">
-        <v>10.230771000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17">
-        <v>50.848329999999997</v>
-      </c>
-      <c r="H17">
-        <v>5.6888899999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18">
-        <v>53.325833000000003</v>
-      </c>
-      <c r="H18">
-        <v>-6.3172220000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19">
-        <v>47.531669999999998</v>
-      </c>
-      <c r="H19">
-        <v>21.62444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20">
-        <v>47.262659999999997</v>
-      </c>
-      <c r="H20">
-        <v>11.394539999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21">
-        <v>43.935051799999997</v>
-      </c>
-      <c r="H21">
-        <v>10.9183529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22">
-        <v>50.116207000000003</v>
-      </c>
-      <c r="H22">
-        <v>14.464003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>44.840440000000001</v>
-      </c>
-      <c r="H23">
-        <v>-0.58050000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24">
-        <v>48.110278000000001</v>
-      </c>
-      <c r="H24">
-        <v>11.469443999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="I56" t="s">
+        <v>477</v>
+      </c>
+      <c r="J56" t="s">
+        <v>478</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>479</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
         <v>134</v>
       </c>
-      <c r="F25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25">
-        <v>49.192149999999998</v>
-      </c>
-      <c r="H25">
-        <v>16.599042000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" t="s">
         <v>136</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="H57" t="s">
         <v>137</v>
       </c>
-      <c r="E26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26">
-        <v>46.253</v>
-      </c>
-      <c r="H26">
-        <v>20.148240000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27">
-        <v>49.440541000000003</v>
-      </c>
-      <c r="H27">
-        <v>1.1106720000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28">
-        <v>51.025171</v>
-      </c>
-      <c r="H28">
-        <v>3.7252130000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G29">
-        <v>46.053688999999999</v>
-      </c>
-      <c r="H29">
-        <v>14.521233000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30">
-        <v>51.960835000000003</v>
-      </c>
-      <c r="H30">
-        <v>7.5962769999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31">
-        <v>47.262659999999997</v>
-      </c>
-      <c r="H31">
-        <v>11.394539999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32">
-        <v>44.489789999999999</v>
-      </c>
-      <c r="H32">
-        <v>11.348087</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33">
-        <v>45.041268000000002</v>
-      </c>
-      <c r="H33">
-        <v>7.6729260000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34">
-        <v>45.823895</v>
-      </c>
-      <c r="H34">
-        <v>16.006522</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35">
-        <v>45.464269999999999</v>
-      </c>
-      <c r="H35">
-        <v>9.1895100000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36">
-        <v>44.453795999999997</v>
-      </c>
-      <c r="H36">
-        <v>26.113551000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" t="s">
-        <v>185</v>
-      </c>
-      <c r="F37" t="s">
-        <v>147</v>
-      </c>
-      <c r="G37">
-        <v>50.87959</v>
-      </c>
-      <c r="H37">
-        <v>4.7009299999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38">
-        <v>43.810527</v>
-      </c>
-      <c r="H38">
-        <v>11.252438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39">
-        <v>54.331567</v>
-      </c>
-      <c r="H39">
-        <v>10.14235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" t="s">
-        <v>196</v>
-      </c>
-      <c r="E40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G40">
-        <v>41.897466000000001</v>
-      </c>
-      <c r="H40">
-        <v>12.461168000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" t="s">
-        <v>200</v>
-      </c>
-      <c r="F41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41">
-        <v>53.222794</v>
-      </c>
-      <c r="H41">
-        <v>6.574039</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" t="s">
-        <v>203</v>
-      </c>
-      <c r="E42" t="s">
-        <v>204</v>
-      </c>
-      <c r="F42" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42">
-        <v>55.64152</v>
-      </c>
-      <c r="H42">
-        <v>12.080349999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="s">
-        <v>206</v>
-      </c>
-      <c r="D43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" t="s">
-        <v>209</v>
-      </c>
-      <c r="F43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43">
-        <v>51.922499999999999</v>
-      </c>
-      <c r="H43">
-        <v>4.4791699999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" t="s">
-        <v>212</v>
-      </c>
-      <c r="E44" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G44">
-        <v>47.807327999999998</v>
-      </c>
-      <c r="H44">
-        <v>13.030384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F45" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45">
-        <v>41.708831000000004</v>
-      </c>
-      <c r="H45">
-        <v>15.706201999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>219</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" t="s">
-        <v>220</v>
-      </c>
-      <c r="E46" t="s">
-        <v>221</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46">
-        <v>47.487222000000003</v>
-      </c>
-      <c r="H46">
-        <v>19.067222000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>223</v>
-      </c>
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" t="s">
-        <v>224</v>
-      </c>
-      <c r="E47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" t="s">
-        <v>122</v>
-      </c>
-      <c r="G47">
-        <v>50.088039999999999</v>
-      </c>
-      <c r="H47">
-        <v>14.42076</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>226</v>
-      </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" t="s">
-        <v>228</v>
-      </c>
-      <c r="F48" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48">
-        <v>50.813611000000002</v>
-      </c>
-      <c r="H48">
-        <v>4.2661110000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D49" t="s">
-        <v>231</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49">
-        <v>41.901642000000002</v>
-      </c>
-      <c r="H49">
-        <v>12.430740999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>233</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
-        <v>232</v>
-      </c>
-      <c r="D50" t="s">
-        <v>234</v>
-      </c>
-      <c r="E50" t="s">
-        <v>235</v>
-      </c>
-      <c r="F50" t="s">
-        <v>236</v>
-      </c>
-      <c r="G50">
-        <v>52.403528000000001</v>
-      </c>
-      <c r="H50">
-        <v>16.886793999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>238</v>
-      </c>
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" t="s">
-        <v>239</v>
-      </c>
-      <c r="E51" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51">
-        <v>49.174602</v>
-      </c>
-      <c r="H51">
-        <v>16.573913999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>240</v>
-      </c>
-      <c r="D52" t="s">
-        <v>242</v>
-      </c>
-      <c r="E52" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52">
-        <v>44.647829999999999</v>
-      </c>
-      <c r="H52">
-        <v>10.92539</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>245</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" t="s">
-        <v>246</v>
-      </c>
-      <c r="E53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F53" t="s">
-        <v>248</v>
-      </c>
-      <c r="G53">
-        <v>54.902720000000002</v>
-      </c>
-      <c r="H53">
-        <v>23.909610000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>250</v>
-      </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" t="s">
-        <v>251</v>
-      </c>
-      <c r="E54" t="s">
-        <v>252</v>
-      </c>
-      <c r="F54" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54">
-        <v>55.385449999999999</v>
-      </c>
-      <c r="H54">
-        <v>10.369656000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>254</v>
-      </c>
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D55" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" t="s">
-        <v>256</v>
-      </c>
-      <c r="F55" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55">
-        <v>52.374029999999998</v>
-      </c>
-      <c r="H55">
-        <v>4.8896899999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="s">
-        <v>257</v>
-      </c>
-      <c r="D56" t="s">
-        <v>259</v>
-      </c>
-      <c r="E56" t="s">
-        <v>260</v>
-      </c>
-      <c r="F56" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56">
-        <v>43.604259999999996</v>
-      </c>
-      <c r="H56">
-        <v>1.44367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>262</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>261</v>
-      </c>
-      <c r="D57" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" t="s">
-        <v>264</v>
-      </c>
-      <c r="F57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57">
-        <v>49.590989999999998</v>
-      </c>
-      <c r="H57">
-        <v>11.00783</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>266</v>
-      </c>
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D58" t="s">
-        <v>267</v>
-      </c>
-      <c r="E58" t="s">
-        <v>268</v>
-      </c>
-      <c r="F58" t="s">
-        <v>269</v>
-      </c>
-      <c r="G58">
-        <v>56.921971999999997</v>
-      </c>
-      <c r="H58">
-        <v>24.088044</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>271</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="s">
-        <v>270</v>
-      </c>
-      <c r="D59" t="s">
-        <v>272</v>
-      </c>
-      <c r="E59" t="s">
-        <v>273</v>
-      </c>
-      <c r="F59" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59">
-        <v>45.404313999999999</v>
-      </c>
-      <c r="H59">
-        <v>11.887473999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>275</v>
-      </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D60" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" t="s">
-        <v>277</v>
-      </c>
-      <c r="F60" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60">
-        <v>54.075555999999999</v>
-      </c>
-      <c r="H60">
-        <v>12.103332999999999</v>
+      <c r="I57" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" t="s">
+        <v>481</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D51 J4 J2:J3 J5:J57 I2:I57" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6DD651-AB04-F24B-BC5F-360D6C85538A}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>274</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -3107,10 +4082,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>484</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -3118,10 +4093,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>485</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3129,10 +4104,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>486</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3140,10 +4115,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>487</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3151,10 +4126,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>488</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3162,10 +4137,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>296</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>489</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3173,10 +4148,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>490</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3184,10 +4159,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>491</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3195,10 +4170,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>492</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3206,10 +4181,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>493</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3217,10 +4192,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>494</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -3228,10 +4203,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -3239,10 +4214,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>526</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -3250,10 +4225,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>527</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3261,10 +4236,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>528</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3272,10 +4247,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>529</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -3283,10 +4258,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>530</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3294,10 +4269,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>531</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -3305,10 +4280,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>532</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -3316,10 +4291,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>533</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3327,10 +4302,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>350</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>534</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -3338,10 +4313,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>358</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>539</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3349,10 +4324,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>537</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3360,10 +4335,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>538</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3371,10 +4346,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>536</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3382,10 +4357,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>535</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3393,10 +4368,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>372</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>519</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3404,10 +4379,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>520</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -3415,10 +4390,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>379</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>521</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -3426,10 +4401,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>382</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>525</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -3437,10 +4412,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>398</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>507</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -3448,10 +4423,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>390</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>509</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -3459,10 +4434,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>410</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>515</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -3470,10 +4445,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>406</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>517</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3481,10 +4456,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>426</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>508</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -3492,10 +4467,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>430</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>510</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -3503,10 +4478,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>394</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>511</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -3514,10 +4489,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>518</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -3525,10 +4500,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>414</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>514</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -3536,10 +4511,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>422</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>516</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -3547,10 +4522,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>512</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -3558,10 +4533,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>402</v>
       </c>
       <c r="B43" t="s">
-        <v>206</v>
+        <v>513</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -3569,10 +4544,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>498</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -3580,10 +4555,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>437</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>499</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -3591,10 +4566,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>441</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>500</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -3602,10 +4577,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>501</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -3613,10 +4588,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>502</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -3624,10 +4599,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>503</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -3635,10 +4610,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s">
-        <v>232</v>
+        <v>504</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -3646,10 +4621,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s">
-        <v>237</v>
+        <v>505</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -3657,10 +4632,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>460</v>
       </c>
       <c r="B52" t="s">
-        <v>240</v>
+        <v>506</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -3668,10 +4643,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>497</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -3679,10 +4654,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>495</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -3690,10 +4665,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>254</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s">
-        <v>253</v>
+        <v>522</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -3701,10 +4676,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>496</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -3712,45 +4687,12 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>524</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>266</v>
-      </c>
-      <c r="B58" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>271</v>
-      </c>
-      <c r="B59" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>275</v>
-      </c>
-      <c r="B60" t="s">
-        <v>274</v>
-      </c>
-      <c r="C60" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3799,10 +4741,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>294</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3811,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -3819,10 +4761,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3831,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -3839,10 +4781,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3851,7 +4793,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -3859,10 +4801,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3871,7 +4813,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -3879,10 +4821,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3891,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -3899,10 +4841,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -3911,7 +4853,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -3919,10 +4861,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -3931,7 +4873,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -3939,10 +4881,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3951,7 +4893,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -3959,10 +4901,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3976,10 +4918,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3993,10 +4935,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>262</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4010,10 +4952,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4027,10 +4969,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -4044,10 +4986,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4061,10 +5003,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="B16" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4078,10 +5020,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>256</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4095,10 +5037,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4112,10 +5054,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4129,10 +5071,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>218</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4141,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -4149,10 +5091,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>224</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4161,7 +5103,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -4169,10 +5111,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4181,7 +5123,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
@@ -4189,10 +5131,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C23">
         <v>0.22</v>
@@ -4206,10 +5148,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4223,10 +5165,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="C25">
         <v>0.78</v>
@@ -4240,10 +5182,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="C26">
         <v>0</v>
